--- a/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1747648874301749</v>
+        <v>0.1761685226366037</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.245621032385754</v>
+        <v>0.2449353152653554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2349779516742651</v>
+        <v>0.2331811302720622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07080161800261679</v>
+        <v>0.07059440807937581</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2578751206652166</v>
+        <v>0.2593014309372089</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3400017154087691</v>
+        <v>0.3397121697188519</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2519699612876394</v>
+        <v>0.2494813069299029</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09898176038792661</v>
+        <v>0.09737098124271837</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.230744205144902</v>
+        <v>0.2299242491731592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3118355950833174</v>
+        <v>0.3088750372315093</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2539582041006907</v>
+        <v>0.2560325514758005</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09197724148005434</v>
+        <v>0.09226161983168354</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2363078037954007</v>
+        <v>0.237970143103193</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3130902825897938</v>
+        <v>0.3121806531383497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3094425709339705</v>
+        <v>0.3091602147491437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1164670716742603</v>
+        <v>0.1157994213603504</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3162887789890503</v>
+        <v>0.3113584936856628</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3989323344410588</v>
+        <v>0.3992839613276313</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3189234704703734</v>
+        <v>0.3189120936356395</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1347559390316912</v>
+        <v>0.133605127089578</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2732482974289945</v>
+        <v>0.2730993732803238</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3545986821995664</v>
+        <v>0.3567127121422841</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3039807674258901</v>
+        <v>0.3065304777809443</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1199536183683597</v>
+        <v>0.1202781612621444</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.6083034598593352</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1416650689623184</v>
+        <v>0.1416650689623183</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5261395604678244</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4239019563145986</v>
+        <v>0.4216488189912196</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5526263267247693</v>
+        <v>0.5511581952104194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4615938943416049</v>
+        <v>0.4618039912666322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08076365800549887</v>
+        <v>0.08028623700859461</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5600823974921442</v>
+        <v>0.5626298515249922</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7618216083881723</v>
+        <v>0.7592378610224171</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5814440264321714</v>
+        <v>0.5771728947292536</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1285630438862555</v>
+        <v>0.1278498522926913</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5038614113883897</v>
+        <v>0.5025519447459786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6668294666761719</v>
+        <v>0.6654730019457776</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5324831093549827</v>
+        <v>0.5325973302222022</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1068780184163454</v>
+        <v>0.1078483979080779</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4904208041441575</v>
+        <v>0.4859393700094886</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6133193168415131</v>
+        <v>0.6098543829450376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5229944638935261</v>
+        <v>0.5208178146747648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1079854598689624</v>
+        <v>0.1069659285276248</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6227465138031225</v>
+        <v>0.6236082571610352</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8098142723488803</v>
+        <v>0.8087875861268896</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6374070536722672</v>
+        <v>0.6378183509169709</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1567219615209871</v>
+        <v>0.1565330778096204</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.552177445030693</v>
+        <v>0.5478976004744583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7052276290805706</v>
+        <v>0.7058828899622133</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5753736701435161</v>
+        <v>0.5738767313533603</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1265992648173906</v>
+        <v>0.1275169727159675</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5616283187647537</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07536364257794681</v>
+        <v>0.0753636425779468</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6012694398047517</v>
@@ -969,7 +969,7 @@
         <v>0.6421015356864167</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09118356896475503</v>
+        <v>0.09118356896475499</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4234464248778322</v>
+        <v>0.4211029013259716</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6323161308973936</v>
+        <v>0.6337890618017638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4979413716146594</v>
+        <v>0.4938576632305225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05634867666826548</v>
+        <v>0.05524964924287702</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5409771274567557</v>
+        <v>0.545139099091973</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7904357093870408</v>
+        <v>0.7910061220518898</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6551374519834202</v>
+        <v>0.657371747253743</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08718572211886959</v>
+        <v>0.08782273444904277</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4973166275330243</v>
+        <v>0.4995429497534991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7298448035711379</v>
+        <v>0.7279893523867876</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.602740416045507</v>
+        <v>0.600811428514141</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07718655309944951</v>
+        <v>0.07713696656306715</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5413227898760288</v>
+        <v>0.539267751951624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7584876001444788</v>
+        <v>0.755181377293084</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6274391867307959</v>
+        <v>0.6234729722698303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1061772212107626</v>
+        <v>0.1021692320879995</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6600759096477642</v>
+        <v>0.6598982933787242</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8891791069710858</v>
+        <v>0.8879646483694773</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7670410930659899</v>
+        <v>0.7641195955810189</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1270980431761959</v>
+        <v>0.1283326141187787</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.585511306396078</v>
+        <v>0.5871003070226638</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8086162010345608</v>
+        <v>0.807162196815188</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6821109948762519</v>
+        <v>0.6832519453243107</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1089562571089339</v>
+        <v>0.1080139111366463</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4415686457023072</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08897123387169954</v>
+        <v>0.08897123387169958</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4600310069908319</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4719781512150859</v>
+        <v>0.4726013498502553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4178464735895859</v>
+        <v>0.4179540698125938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07872311034543904</v>
+        <v>0.0795434748867552</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.594137161192227</v>
+        <v>0.5968920435907327</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.492447612328104</v>
+        <v>0.4908334238668355</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1196241264426415</v>
+        <v>0.1201487668344314</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.545469636945643</v>
+        <v>0.5454105875071298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4653935216625971</v>
+        <v>0.4646679990382214</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1023475032238509</v>
+        <v>0.1024613507749574</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5154878704809492</v>
+        <v>0.5179771907550598</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4647096720952613</v>
+        <v>0.4629766070090364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09971642561363486</v>
+        <v>0.1019374334264287</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6339958640235834</v>
+        <v>0.6345488756315429</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5335866662589666</v>
+        <v>0.533288402463807</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.138568031777674</v>
+        <v>0.1396162732229796</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5746240078484274</v>
+        <v>0.5758049101631937</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.498435156786453</v>
+        <v>0.4973290207050905</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1167875418134219</v>
+        <v>0.1170855860021607</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>118509</v>
+        <v>119460</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>176110</v>
+        <v>175618</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>121777</v>
+        <v>120846</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40961</v>
+        <v>40841</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>257898</v>
+        <v>259325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>361188</v>
+        <v>360880</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>197937</v>
+        <v>195982</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>81367</v>
+        <v>80043</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>387233</v>
+        <v>385857</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>554852</v>
+        <v>549584</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>331113</v>
+        <v>333818</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>128820</v>
+        <v>129219</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>160241</v>
+        <v>161368</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>224485</v>
+        <v>223833</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>160369</v>
+        <v>160222</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67380</v>
+        <v>66993</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>316317</v>
+        <v>311386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>423790</v>
+        <v>424164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>250533</v>
+        <v>250524</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>110775</v>
+        <v>109828</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>458563</v>
+        <v>458313</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>630941</v>
+        <v>634702</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>396333</v>
+        <v>399658</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>168003</v>
+        <v>168458</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>398556</v>
+        <v>396438</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>640036</v>
+        <v>638335</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>508650</v>
+        <v>508881</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>180149</v>
+        <v>179084</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>566300</v>
+        <v>568876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>901147</v>
+        <v>898091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>716656</v>
+        <v>711392</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>279161</v>
+        <v>277612</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>983190</v>
+        <v>980635</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1561085</v>
+        <v>1557910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1243075</v>
+        <v>1243342</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>470473</v>
+        <v>474744</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>461098</v>
+        <v>456884</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>710329</v>
+        <v>706316</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>576310</v>
+        <v>573911</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>240869</v>
+        <v>238595</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>629660</v>
+        <v>630532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>957917</v>
+        <v>956703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>785633</v>
+        <v>786140</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>340305</v>
+        <v>339895</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1077469</v>
+        <v>1069118</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1650977</v>
+        <v>1652511</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1343202</v>
+        <v>1339708</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>557285</v>
+        <v>561324</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>123610</v>
+        <v>122926</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>164135</v>
+        <v>164518</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>133612</v>
+        <v>132516</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>40097</v>
+        <v>39315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>156976</v>
+        <v>158184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>212251</v>
+        <v>212404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>204678</v>
+        <v>205376</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>64071</v>
+        <v>64539</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>289481</v>
+        <v>290777</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>385432</v>
+        <v>384452</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>350041</v>
+        <v>348921</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>111648</v>
+        <v>111576</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>158020</v>
+        <v>157420</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>196887</v>
+        <v>196028</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>168360</v>
+        <v>167296</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75554</v>
+        <v>72702</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>191536</v>
+        <v>191484</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>238766</v>
+        <v>238440</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>239639</v>
+        <v>238726</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>93401</v>
+        <v>94309</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>340818</v>
+        <v>341743</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>427031</v>
+        <v>426263</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>396135</v>
+        <v>396798</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>157601</v>
+        <v>156238</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1007553</v>
+        <v>1008884</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>789112</v>
+        <v>789315</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>277159</v>
+        <v>280047</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1493494</v>
+        <v>1500419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1147661</v>
+        <v>1143899</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>445995</v>
+        <v>447951</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2535597</v>
+        <v>2535323</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1963516</v>
+        <v>1960455</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>741916</v>
+        <v>742741</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1100436</v>
+        <v>1105750</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>877614</v>
+        <v>874341</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>351070</v>
+        <v>358889</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1593688</v>
+        <v>1595078</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1243537</v>
+        <v>1242841</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>516624</v>
+        <v>520532</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2671120</v>
+        <v>2676610</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2102920</v>
+        <v>2098254</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>846592</v>
+        <v>848752</v>
       </c>
     </row>
     <row r="20">
